--- a/biology/Zoologie/Cormoran_couronné/Cormoran_couronné.xlsx
+++ b/biology/Zoologie/Cormoran_couronné/Cormoran_couronné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cormoran_couronn%C3%A9</t>
+          <t>Cormoran_couronné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microcarbo coronatus
 Le Cormoran couronné (Microcarbo coronatus) est une espèce d'oiseaux aquatiques de la famille des Phalacrocoracidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cormoran_couronn%C3%A9</t>
+          <t>Cormoran_couronné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cormoran couronné mesure en moyenne 54 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cormoran couronné mesure en moyenne 54 cm de long.
 Son plumage très sombre possède des reflets verdâtres. Son bec puissant devient rouge en période nuptiale. Ses pattes palmées sont adaptées à ses mœurs aquatiques.
 Les juvéniles sont bruns.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cormoran_couronn%C3%A9</t>
+          <t>Cormoran_couronné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-En surface, il nage avec le corps très enfoncé, de sorte que, de loin, on ne voit dépasser que son cou. Très à l'aise sous l'eau, il peut nager en apnée jusqu'à une quarantaine de mètres de profondeur pendant plus de deux minutes, mais en général il n'excède pas les dix mètres pour des plongées d'une trentaine de secondes. Il est piscivore mais consomme également des invertébrés.
-Reproduction
-Prédateurs
-Les œufs et les jeunes sont la proie des Goélands dominicains et des Pélicans blancs, ces derniers s'en prenant également aux adultes[2].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En surface, il nage avec le corps très enfoncé, de sorte que, de loin, on ne voit dépasser que son cou. Très à l'aise sous l'eau, il peut nager en apnée jusqu'à une quarantaine de mètres de profondeur pendant plus de deux minutes, mais en général il n'excède pas les dix mètres pour des plongées d'une trentaine de secondes. Il est piscivore mais consomme également des invertébrés.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cormoran_couronn%C3%A9</t>
+          <t>Cormoran_couronné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il peut être observé le long les côtes de Namibie et de l'ouest de l'Afrique du Sud.
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs et les jeunes sont la proie des Goélands dominicains et des Pélicans blancs, ces derniers s'en prenant également aux adultes.
 </t>
         </is>
       </c>
@@ -593,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cormoran_couronn%C3%A9</t>
+          <t>Cormoran_couronné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,12 +630,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Généralement considérée comme appartenant au genre Phalacrocorax, cette espèce est désormais placée dans le genre Microcarbo dans la classification du Congrès ornithologique international. Le Cormoran couronné est également considéré par certains auteurs comme une sous-espèce du Cormoran africain[3].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être observé le long les côtes de Namibie et de l'ouest de l'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -624,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cormoran_couronn%C3%A9</t>
+          <t>Cormoran_couronné</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,12 +663,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement considérée comme appartenant au genre Phalacrocorax, cette espèce est désormais placée dans le genre Microcarbo dans la classification du Congrès ornithologique international. Le Cormoran couronné est également considéré par certains auteurs comme une sous-espèce du Cormoran africain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cormoran_couronné</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cormoran_couronn%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BirdLife International estime la population de l'espèce à 8 700 individus et s'étendant sur 20 900 km2[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BirdLife International estime la population de l'espèce à 8 700 individus et s'étendant sur 20 900 km2.
 </t>
         </is>
       </c>
